--- a/knowledge-base/excel-postings/initiatives/FY 22/s1.w3/w3-workstream.initiatives.a6i.xlsx
+++ b/knowledge-base/excel-postings/initiatives/FY 22/s1.w3/w3-workstream.initiatives.a6i.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleja\Documents\Code\chateauclaudia-labs\apodeixi\test-knowledge-base\excel-postings\initiatives\FY 22\s1.w3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleja\Documents\Code\chateauclaudia-labs\apodeixi\test_db\knowledge-base\excel-postings\initiatives\FY 22\s1.w3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253318ED-6F7A-42CE-BFF3-1C6C8602C6BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD8BD27-611A-4FAF-ABC4-F12B5EEB9E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" activeTab="1" xr2:uid="{1C3C717C-D18E-4132-9B42-D7001AA1AE8F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" xr2:uid="{1C3C717C-D18E-4132-9B42-D7001AA1AE8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Posting Label" sheetId="3" r:id="rId1"/>
@@ -104,9 +104,6 @@
     <t>scenario</t>
   </si>
   <si>
-    <t>environment</t>
-  </si>
-  <si>
     <t>Production</t>
   </si>
   <si>
@@ -581,6 +578,9 @@
   </si>
   <si>
     <t>Sales teams</t>
+  </si>
+  <si>
+    <t>knowledgeBase</t>
   </si>
 </sst>
 </file>
@@ -1216,8 +1216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB4F2FFF-2059-4FCA-919C-352E3D9E13C7}">
   <dimension ref="B1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1234,10 +1234,10 @@
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B2" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" s="42" t="s">
         <v>164</v>
-      </c>
-      <c r="C2" s="42" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.45">
@@ -1277,28 +1277,28 @@
         <v>21</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B8" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B9" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>151</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B10" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>1</v>
@@ -1306,71 +1306,71 @@
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B11" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B12" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>156</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B13" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B14" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>159</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B15" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B16" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B18" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B19" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" s="10">
         <v>44315</v>
@@ -1378,10 +1378,10 @@
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B20" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -1393,7 +1393,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEE62272-EDE1-49CE-9DD5-2DAC624B869E}">
   <dimension ref="B1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
@@ -1428,7 +1428,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>5</v>
@@ -1449,7 +1449,7 @@
         <v>10</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="28.5" x14ac:dyDescent="0.45">
@@ -1464,7 +1464,7 @@
         <v>44469</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G3" s="14">
         <v>44408</v>
@@ -1479,16 +1479,16 @@
       <c r="D4" s="12"/>
       <c r="E4" s="14"/>
       <c r="F4" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G4" s="14">
         <v>44804</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J4" s="33"/>
     </row>
@@ -1505,7 +1505,7 @@
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J5" s="33"/>
     </row>
@@ -1521,13 +1521,13 @@
         <v>44469</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J6" s="33" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.45">
@@ -1544,16 +1544,16 @@
     <row r="8" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B8" s="8"/>
       <c r="C8" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E8" s="14">
         <v>44530</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G8" s="14">
         <v>44500</v>
@@ -1568,7 +1568,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14"/>
       <c r="F9" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G9" s="14">
         <v>44530</v>
@@ -1591,10 +1591,10 @@
     <row r="11" spans="2:10" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B11" s="8"/>
       <c r="C11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>31</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>32</v>
       </c>
       <c r="E11" s="14">
         <v>44712</v>
@@ -1602,10 +1602,10 @@
       <c r="F11" s="12"/>
       <c r="G11" s="14"/>
       <c r="H11" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="12" t="s">
         <v>33</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>34</v>
       </c>
       <c r="J11" s="33"/>
     </row>
@@ -1613,7 +1613,7 @@
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E12" s="14">
         <v>45077</v>
@@ -1621,10 +1621,10 @@
       <c r="F12" s="12"/>
       <c r="G12" s="14"/>
       <c r="H12" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" s="12" t="s">
         <v>33</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>34</v>
       </c>
       <c r="J12" s="33"/>
     </row>
@@ -1632,7 +1632,7 @@
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E13" s="14">
         <v>45443</v>
@@ -1640,10 +1640,10 @@
       <c r="F13" s="12"/>
       <c r="G13" s="14"/>
       <c r="H13" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="12" t="s">
         <v>33</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>34</v>
       </c>
       <c r="J13" s="33"/>
     </row>
@@ -1778,7 +1778,7 @@
   <sheetData>
     <row r="1" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B1" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
@@ -1795,34 +1795,34 @@
         <v>4</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="E2" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="F2" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="G2" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="H2" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="I2" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="J2" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="K2" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="L2" s="11" t="s">
         <v>54</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>55</v>
       </c>
       <c r="M2" s="16"/>
     </row>
@@ -1842,67 +1842,67 @@
     <row r="4" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B4" s="8"/>
       <c r="C4" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="F4" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>59</v>
-      </c>
       <c r="G4" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J4" s="17">
         <v>1</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="85.5" x14ac:dyDescent="0.45">
       <c r="B5" s="8"/>
       <c r="C5" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>72</v>
-      </c>
       <c r="G5" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J5" s="17">
         <v>1</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.45">
@@ -1934,100 +1934,100 @@
     <row r="8" spans="2:13" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B8" s="8"/>
       <c r="C8" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D8" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>59</v>
-      </c>
       <c r="G8" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J8" s="17">
         <v>1</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B9" s="8"/>
       <c r="C9" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>59</v>
-      </c>
       <c r="G9" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J9" s="17">
         <v>3</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B10" s="8"/>
       <c r="C10" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D10" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>59</v>
-      </c>
       <c r="G10" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J10" s="17">
         <v>1</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.45">
@@ -2046,100 +2046,100 @@
     <row r="12" spans="2:13" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B12" s="8"/>
       <c r="C12" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>65</v>
-      </c>
       <c r="G12" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J12" s="17">
         <v>1</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B13" s="8"/>
       <c r="C13" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D13" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="8" t="s">
-        <v>57</v>
-      </c>
       <c r="F13" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="G13" s="17" t="s">
-        <v>67</v>
-      </c>
       <c r="H13" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J13" s="17">
         <v>3</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="2:13" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B14" s="8"/>
       <c r="C14" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>123</v>
-      </c>
       <c r="G14" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J14" s="17">
         <v>1</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.45">
@@ -2183,12 +2183,12 @@
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C19" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C20" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2218,41 +2218,41 @@
   <sheetData>
     <row r="1" spans="1:8" ht="40.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="39" t="s">
         <v>141</v>
-      </c>
-      <c r="B1" s="39" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="49.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B2" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="D2" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="E2" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="F2" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="27" t="s">
-        <v>83</v>
-      </c>
       <c r="G2" s="27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="23"/>
@@ -2263,10 +2263,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C4" s="23">
         <v>44322</v>
@@ -2278,21 +2278,21 @@
         <v>44322</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C5" s="23">
         <v>44323</v>
@@ -2304,10 +2304,10 @@
         <v>44336</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
@@ -2321,7 +2321,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B7" s="35"/>
       <c r="C7" s="24"/>
@@ -2332,10 +2332,10 @@
     </row>
     <row r="8" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A8" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" s="23">
         <v>44336</v>
@@ -2347,18 +2347,18 @@
         <v>44348</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C9" s="23">
         <v>44336</v>
@@ -2370,18 +2370,18 @@
         <v>44348</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="21" t="s">
         <v>90</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>91</v>
       </c>
       <c r="C10" s="23">
         <v>44348</v>
@@ -2393,38 +2393,38 @@
         <v>44348</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A11" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C11" s="23">
         <v>44348</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B12" s="35"/>
       <c r="C12" s="24"/>
@@ -2435,7 +2435,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="36" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B13" s="35"/>
       <c r="C13" s="24">
@@ -2450,10 +2450,10 @@
     </row>
     <row r="14" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A14" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="21" t="s">
         <v>95</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>96</v>
       </c>
       <c r="C14" s="23">
         <v>44351</v>
@@ -2465,18 +2465,18 @@
         <v>44357</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A15" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C15" s="23">
         <v>44357</v>
@@ -2488,18 +2488,18 @@
         <v>44362</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="B16" s="21" t="s">
         <v>144</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>145</v>
       </c>
       <c r="C16" s="23">
         <v>44369</v>
@@ -2509,16 +2509,16 @@
       </c>
       <c r="E16" s="23"/>
       <c r="F16" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G16" s="19"/>
     </row>
     <row r="17" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C17" s="23">
         <v>44372</v>
@@ -2528,15 +2528,15 @@
       </c>
       <c r="E17" s="23"/>
       <c r="F17" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A18" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B18" s="30" t="s">
         <v>5</v>
@@ -2549,7 +2549,7 @@
       </c>
       <c r="E18" s="31"/>
       <c r="F18" s="32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G18" s="32"/>
     </row>
@@ -2568,7 +2568,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" s="36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B21" s="35"/>
       <c r="C21" s="24">
@@ -2583,10 +2583,10 @@
     </row>
     <row r="22" spans="1:8" ht="62.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C22" s="23">
         <v>44362</v>
@@ -2596,21 +2596,21 @@
       </c>
       <c r="E22" s="23"/>
       <c r="F22" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A23" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="B23" s="21" t="s">
         <v>125</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>126</v>
       </c>
       <c r="C23" s="23">
         <v>44377</v>
@@ -2620,15 +2620,15 @@
       </c>
       <c r="E23" s="23"/>
       <c r="F23" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B24" s="30" t="s">
         <v>5</v>
@@ -2645,14 +2645,14 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" s="36" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B25" s="35"/>
       <c r="C25" s="24">
         <v>44440</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E25" s="24"/>
       <c r="F25" s="20"/>
@@ -2669,35 +2669,35 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B27" s="21"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E27" s="23"/>
       <c r="F27" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="G27" s="19" t="s">
         <v>102</v>
-      </c>
-      <c r="G27" s="19" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A28" s="38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B28" s="30" t="s">
         <v>5</v>
       </c>
       <c r="C28" s="31"/>
       <c r="D28" s="31" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E28" s="31"/>
       <c r="F28" s="32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G28" s="32"/>
     </row>
@@ -2721,7 +2721,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B31" s="35"/>
       <c r="C31" s="24"/>
@@ -2732,7 +2732,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B32" s="21"/>
       <c r="C32" s="23"/>
@@ -2743,7 +2743,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B33" s="21"/>
       <c r="C33" s="23"/>
@@ -2772,7 +2772,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" s="34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B36" s="35"/>
       <c r="C36" s="24"/>
@@ -2873,29 +2873,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="66517581-92a9-4cb0-981f-3f6c827c3504">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BCBD749F692D2840A5441473A3346AC8" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e2155aeb54e5d7003d408112aa42e75d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1457f3fe-6304-4719-bef8-60c608407d99" xmlns:ns3="66517581-92a9-4cb0-981f-3f6c827c3504" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d4c58ad8abd1e926bea19a7235ad73cd" ns2:_="" ns3:_="">
     <xsd:import namespace="1457f3fe-6304-4719-bef8-60c608407d99"/>
@@ -3106,32 +3083,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD6CD186-1AFD-40DE-A756-562BEC0234AA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="1457f3fe-6304-4719-bef8-60c608407d99"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="66517581-92a9-4cb0-981f-3f6c827c3504"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69F59924-779F-45B5-BAB0-46EB91D29C8C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="66517581-92a9-4cb0-981f-3f6c827c3504">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F12541E2-9817-492B-A505-DADFA7A72FA1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3148,4 +3123,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69F59924-779F-45B5-BAB0-46EB91D29C8C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD6CD186-1AFD-40DE-A756-562BEC0234AA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="1457f3fe-6304-4719-bef8-60c608407d99"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="66517581-92a9-4cb0-981f-3f6c827c3504"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>